--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_494__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_494__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,7 +5873,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>18.32800483703613</c:v>
+                  <c:v>18.3280029296875</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>33.3516731262207</c:v>
@@ -5897,7 +5897,7 @@
                   <c:v>20.14372825622559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.39430809020996</c:v>
+                  <c:v>14.39430904388428</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>17.5915699005127</c:v>
@@ -5936,7 +5936,7 @@
                   <c:v>28.47165298461914</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.12082481384277</c:v>
+                  <c:v>21.12082672119141</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20.0191650390625</c:v>
@@ -5954,7 +5954,7 @@
                   <c:v>18.68983459472656</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21.35332679748535</c:v>
+                  <c:v>21.35332489013672</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>28.61818695068359</c:v>
@@ -5969,7 +5969,7 @@
                   <c:v>17.94183349609375</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.22440147399902</c:v>
+                  <c:v>14.22440052032471</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>23.09995269775391</c:v>
@@ -5978,7 +5978,7 @@
                   <c:v>32.60541534423828</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.929187774658203</c:v>
+                  <c:v>8.92918872833252</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>19.32793426513672</c:v>
@@ -5987,10 +5987,10 @@
                   <c:v>25.80485343933105</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19.93560981750488</c:v>
+                  <c:v>19.93560791015625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>27.02403450012207</c:v>
+                  <c:v>27.0240364074707</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>8.892450332641602</c:v>
@@ -6002,7 +6002,7 @@
                   <c:v>32.51585388183594</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>24.51472282409668</c:v>
+                  <c:v>24.51472473144531</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>30.29195213317871</c:v>
@@ -6011,7 +6011,7 @@
                   <c:v>11.67581558227539</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15.91280078887939</c:v>
+                  <c:v>15.91279983520508</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>24.87037658691406</c:v>
@@ -6026,16 +6026,16 @@
                   <c:v>22.2827033996582</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.810696601867676</c:v>
+                  <c:v>8.810695648193359</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>18.81767272949219</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.2574348449707</c:v>
+                  <c:v>17.25743293762207</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>15.2819128036499</c:v>
+                  <c:v>15.28191184997559</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>20.77417755126953</c:v>
@@ -6050,7 +6050,7 @@
                   <c:v>32.18568420410156</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21.38005638122559</c:v>
+                  <c:v>21.38005447387695</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>27.20670318603516</c:v>
@@ -6080,16 +6080,16 @@
                   <c:v>24.26474189758301</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>33.0748176574707</c:v>
+                  <c:v>33.07481384277344</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>33.41982650756836</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>21.70614433288574</c:v>
+                  <c:v>21.70614624023438</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15.9038610458374</c:v>
+                  <c:v>15.90386009216309</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>32.38049697875977</c:v>
@@ -6098,16 +6098,16 @@
                   <c:v>20.22195243835449</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>32.26596450805664</c:v>
+                  <c:v>32.26596832275391</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>14.35997581481934</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>15.04006004333496</c:v>
+                  <c:v>15.04005908966064</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>16.99827003479004</c:v>
+                  <c:v>16.99826812744141</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>21.06197547912598</c:v>
@@ -6125,7 +6125,7 @@
                   <c:v>28.87498664855957</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>19.98102951049805</c:v>
+                  <c:v>19.98102760314941</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>32.61967468261719</c:v>
@@ -6137,7 +6137,7 @@
                   <c:v>25.39627838134766</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>24.49931526184082</c:v>
+                  <c:v>24.49931716918945</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>20.5107421875</c:v>
@@ -6152,7 +6152,7 @@
                   <c:v>19.2740592956543</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>20.78373146057129</c:v>
+                  <c:v>20.78373336791992</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>20.99628257751465</c:v>
@@ -6161,7 +6161,7 @@
                   <c:v>19.54549789428711</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>18.00573539733887</c:v>
+                  <c:v>18.00573348999023</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>22.93680191040039</c:v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.32800483703613</v>
+        <v>18.3280029296875</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>14.39430809020996</v>
+        <v>14.39430904388428</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.12082481384277</v>
+        <v>21.12082672119141</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>21.35332679748535</v>
+        <v>21.35332489013672</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>14.22440147399902</v>
+        <v>14.22440052032471</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>8.929187774658203</v>
+        <v>8.92918872833252</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>19.93560981750488</v>
+        <v>19.93560791015625</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>27.02403450012207</v>
+        <v>27.0240364074707</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>24.51472282409668</v>
+        <v>24.51472473144531</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>15.91280078887939</v>
+        <v>15.91279983520508</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>8.810696601867676</v>
+        <v>8.810695648193359</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>17.2574348449707</v>
+        <v>17.25743293762207</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>15.2819128036499</v>
+        <v>15.28191184997559</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>21.38005638122559</v>
+        <v>21.38005447387695</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>33.0748176574707</v>
+        <v>33.07481384277344</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>21.70614433288574</v>
+        <v>21.70614624023438</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>15.9038610458374</v>
+        <v>15.90386009216309</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>32.26596450805664</v>
+        <v>32.26596832275391</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>15.04006004333496</v>
+        <v>15.04005908966064</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>16.99827003479004</v>
+        <v>16.99826812744141</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>19.98102951049805</v>
+        <v>19.98102760314941</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>24.49931526184082</v>
+        <v>24.49931716918945</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>20.78373146057129</v>
+        <v>20.78373336791992</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>18.00573539733887</v>
+        <v>18.00573348999023</v>
       </c>
     </row>
     <row r="99" spans="1:6">
